--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Ntrk3</t>
+  </si>
+  <si>
+    <t>Ptprf</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Ntrk3</t>
-  </si>
-  <si>
-    <t>Ptprf</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -534,25 +534,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.001483333333333333</v>
+        <v>0.0421005</v>
       </c>
       <c r="H2">
-        <v>0.00445</v>
+        <v>0.084201</v>
       </c>
       <c r="I2">
-        <v>0.001010399967394733</v>
+        <v>0.02355433709362141</v>
       </c>
       <c r="J2">
-        <v>0.001513729011892127</v>
+        <v>0.02354456735134313</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.245966</v>
+        <v>0.8108664999999999</v>
       </c>
       <c r="N2">
-        <v>0.491932</v>
+        <v>1.621733</v>
       </c>
       <c r="O2">
-        <v>0.03271899873118758</v>
+        <v>0.0929863610355799</v>
       </c>
       <c r="P2">
-        <v>0.02828474718162756</v>
+        <v>0.08514801891941343</v>
       </c>
       <c r="Q2">
-        <v>0.0003648495666666667</v>
+        <v>0.03413788508325</v>
       </c>
       <c r="R2">
-        <v>0.0021890974</v>
+        <v>0.136551540333</v>
       </c>
       <c r="S2">
-        <v>3.305927525118026E-05</v>
+        <v>0.002190232092941232</v>
       </c>
       <c r="T2">
-        <v>4.281544240286371E-05</v>
+        <v>0.002004773266281568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.001483333333333333</v>
+        <v>0.0421005</v>
       </c>
       <c r="H3">
-        <v>0.00445</v>
+        <v>0.084201</v>
       </c>
       <c r="I3">
-        <v>0.001010399967394733</v>
+        <v>0.02355433709362141</v>
       </c>
       <c r="J3">
-        <v>0.001513729011892127</v>
+        <v>0.02354456735134313</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.543219</v>
       </c>
       <c r="O3">
-        <v>0.2014500333332077</v>
+        <v>0.1736650041232461</v>
       </c>
       <c r="P3">
-        <v>0.261222690952747</v>
+        <v>0.2385387097426263</v>
       </c>
       <c r="Q3">
-        <v>0.002246369394444444</v>
+        <v>0.0637572638365</v>
       </c>
       <c r="R3">
-        <v>0.02021732455</v>
+        <v>0.382543583019</v>
       </c>
       <c r="S3">
-        <v>0.000203545107111541</v>
+        <v>0.00409056404848409</v>
       </c>
       <c r="T3">
-        <v>0.0003954203658597042</v>
+        <v>0.005616290717437755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.001483333333333333</v>
+        <v>0.0421005</v>
       </c>
       <c r="H4">
-        <v>0.00445</v>
+        <v>0.084201</v>
       </c>
       <c r="I4">
-        <v>0.001010399967394733</v>
+        <v>0.02355433709362141</v>
       </c>
       <c r="J4">
-        <v>0.001513729011892127</v>
+        <v>0.02354456735134313</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01693</v>
+        <v>0.01802466666666666</v>
       </c>
       <c r="N4">
-        <v>0.05078999999999999</v>
+        <v>0.054074</v>
       </c>
       <c r="O4">
-        <v>0.002252069995523794</v>
+        <v>0.002066984099371042</v>
       </c>
       <c r="P4">
-        <v>0.002920286359405087</v>
+        <v>0.002839119617747411</v>
       </c>
       <c r="Q4">
-        <v>2.511283333333333E-05</v>
+        <v>0.0007588474789999999</v>
       </c>
       <c r="R4">
-        <v>0.0002260155</v>
+        <v>0.004553084874</v>
       </c>
       <c r="S4">
-        <v>2.275491450047899E-06</v>
+        <v>4.868644024374098E-05</v>
       </c>
       <c r="T4">
-        <v>4.42052218526432E-06</v>
+        <v>6.684584305857347E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.001483333333333333</v>
+        <v>0.0421005</v>
       </c>
       <c r="H5">
-        <v>0.00445</v>
+        <v>0.084201</v>
       </c>
       <c r="I5">
-        <v>0.001010399967394733</v>
+        <v>0.02355433709362141</v>
       </c>
       <c r="J5">
-        <v>0.001513729011892127</v>
+        <v>0.02354456735134313</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.914489</v>
+        <v>6.303909</v>
       </c>
       <c r="N5">
-        <v>9.828977999999999</v>
+        <v>12.607818</v>
       </c>
       <c r="O5">
-        <v>0.6537373431914789</v>
+        <v>0.7229026704265641</v>
       </c>
       <c r="P5">
-        <v>0.5651394050067473</v>
+        <v>0.6619651481449297</v>
       </c>
       <c r="Q5">
-        <v>0.007289825349999999</v>
+        <v>0.2653977208545</v>
       </c>
       <c r="R5">
-        <v>0.0437389521</v>
+        <v>1.061590883418</v>
       </c>
       <c r="S5">
-        <v>0.00066053619024539</v>
+        <v>0.01702749318510639</v>
       </c>
       <c r="T5">
-        <v>0.0008554679131221682</v>
+        <v>0.01558568301474013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.001483333333333333</v>
+        <v>0.0421005</v>
       </c>
       <c r="H6">
-        <v>0.00445</v>
+        <v>0.084201</v>
       </c>
       <c r="I6">
-        <v>0.001010399967394733</v>
+        <v>0.02355433709362141</v>
       </c>
       <c r="J6">
-        <v>0.001513729011892127</v>
+        <v>0.02354456735134313</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6010243333333334</v>
+        <v>0.07084766666666666</v>
       </c>
       <c r="N6">
-        <v>1.803073</v>
+        <v>0.212543</v>
       </c>
       <c r="O6">
-        <v>0.07994972638391565</v>
+        <v>0.008124477594271174</v>
       </c>
       <c r="P6">
-        <v>0.1036717756824495</v>
+        <v>0.01115942968737079</v>
       </c>
       <c r="Q6">
-        <v>0.0008915194277777778</v>
+        <v>0.0029827221905</v>
       </c>
       <c r="R6">
-        <v>0.008023674850000001</v>
+        <v>0.017896333143</v>
       </c>
       <c r="S6">
-        <v>8.078120093152623E-05</v>
+        <v>0.0001913666839650375</v>
       </c>
       <c r="T6">
-        <v>0.0001569309745648965</v>
+        <v>0.0002627439438768795</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.0421005</v>
+      </c>
+      <c r="H7">
+        <v>0.084201</v>
+      </c>
+      <c r="I7">
+        <v>0.02355433709362141</v>
+      </c>
+      <c r="J7">
+        <v>0.02354456735134313</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G7">
-        <v>0.001483333333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.00445</v>
-      </c>
-      <c r="I7">
-        <v>0.001010399967394733</v>
-      </c>
-      <c r="J7">
-        <v>0.001513729011892127</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M7">
-        <v>0.2247126666666667</v>
+        <v>0.002219333333333333</v>
       </c>
       <c r="N7">
-        <v>0.674138</v>
+        <v>0.006658</v>
       </c>
       <c r="O7">
-        <v>0.02989182836468636</v>
+        <v>0.0002545027209677923</v>
       </c>
       <c r="P7">
-        <v>0.03876109481702357</v>
+        <v>0.0003495738879121623</v>
       </c>
       <c r="Q7">
-        <v>0.0003333237888888889</v>
+        <v>9.343504299999999E-05</v>
       </c>
       <c r="R7">
-        <v>0.0029999141</v>
+        <v>0.000560610258</v>
       </c>
       <c r="S7">
-        <v>3.020270240504806E-05</v>
+        <v>5.994642880919248E-06</v>
       </c>
       <c r="T7">
-        <v>5.867379375723014E-05</v>
+        <v>8.230565948218778E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.4644365</v>
+        <v>0.001483333333333333</v>
       </c>
       <c r="H8">
-        <v>2.928873</v>
+        <v>0.00445</v>
       </c>
       <c r="I8">
-        <v>0.9975280394505559</v>
+        <v>0.000829893548901757</v>
       </c>
       <c r="J8">
-        <v>0.9962966364601192</v>
+        <v>0.001244323995124487</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.245966</v>
+        <v>0.8108664999999999</v>
       </c>
       <c r="N8">
-        <v>0.491932</v>
+        <v>1.621733</v>
       </c>
       <c r="O8">
-        <v>0.03271899873118758</v>
+        <v>0.0929863610355799</v>
       </c>
       <c r="P8">
-        <v>0.02828474718162756</v>
+        <v>0.08514801891941343</v>
       </c>
       <c r="Q8">
-        <v>0.3602015881590001</v>
+        <v>0.001202785308333333</v>
       </c>
       <c r="R8">
-        <v>1.440806352636</v>
+        <v>0.007216711849999999</v>
       </c>
       <c r="S8">
-        <v>0.03263811865710677</v>
+        <v>7.716878115927746E-05</v>
       </c>
       <c r="T8">
-        <v>0.02817999848018037</v>
+        <v>0.0001059517230787399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.4644365</v>
+        <v>0.001483333333333333</v>
       </c>
       <c r="H9">
-        <v>2.928873</v>
+        <v>0.00445</v>
       </c>
       <c r="I9">
-        <v>0.9975280394505559</v>
+        <v>0.000829893548901757</v>
       </c>
       <c r="J9">
-        <v>0.9962966364601192</v>
+        <v>0.001244323995124487</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>4.543219</v>
       </c>
       <c r="O9">
-        <v>0.2014500333332077</v>
+        <v>0.1736650041232461</v>
       </c>
       <c r="P9">
-        <v>0.261222690952747</v>
+        <v>0.2385387097426263</v>
       </c>
       <c r="Q9">
-        <v>2.2177519103645</v>
+        <v>0.002246369394444444</v>
       </c>
       <c r="R9">
-        <v>13.306511462187</v>
+        <v>0.02021732455</v>
       </c>
       <c r="S9">
-        <v>0.2009520567981238</v>
+        <v>0.0001441234665918789</v>
       </c>
       <c r="T9">
-        <v>0.2602552883632831</v>
+        <v>0.0002968194402987851</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.4644365</v>
+        <v>0.001483333333333333</v>
       </c>
       <c r="H10">
-        <v>2.928873</v>
+        <v>0.00445</v>
       </c>
       <c r="I10">
-        <v>0.9975280394505559</v>
+        <v>0.000829893548901757</v>
       </c>
       <c r="J10">
-        <v>0.9962966364601192</v>
+        <v>0.001244323995124487</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01693</v>
+        <v>0.01802466666666666</v>
       </c>
       <c r="N10">
-        <v>0.05078999999999999</v>
+        <v>0.054074</v>
       </c>
       <c r="O10">
-        <v>0.002252069995523794</v>
+        <v>0.002066984099371042</v>
       </c>
       <c r="P10">
-        <v>0.002920286359405087</v>
+        <v>0.002839119617747411</v>
       </c>
       <c r="Q10">
-        <v>0.024792909945</v>
+        <v>2.673658888888889E-05</v>
       </c>
       <c r="R10">
-        <v>0.14875745967</v>
+        <v>0.0002406293</v>
       </c>
       <c r="S10">
-        <v>0.002246502967340273</v>
+        <v>1.715376769750536E-06</v>
       </c>
       <c r="T10">
-        <v>0.002909471477375655</v>
+        <v>3.532784665391765E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.4644365</v>
+        <v>0.001483333333333333</v>
       </c>
       <c r="H11">
-        <v>2.928873</v>
+        <v>0.00445</v>
       </c>
       <c r="I11">
-        <v>0.9975280394505559</v>
+        <v>0.000829893548901757</v>
       </c>
       <c r="J11">
-        <v>0.9962966364601192</v>
+        <v>0.001244323995124487</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.914489</v>
+        <v>6.303909</v>
       </c>
       <c r="N11">
-        <v>9.828977999999999</v>
+        <v>12.607818</v>
       </c>
       <c r="O11">
-        <v>0.6537373431914789</v>
+        <v>0.7229026704265641</v>
       </c>
       <c r="P11">
-        <v>0.5651394050067473</v>
+        <v>0.6619651481449297</v>
       </c>
       <c r="Q11">
-        <v>7.196957070448501</v>
+        <v>0.00935079835</v>
       </c>
       <c r="R11">
-        <v>28.787828281794</v>
+        <v>0.0561047901</v>
       </c>
       <c r="S11">
-        <v>0.6521213302694112</v>
+        <v>0.0005999322626708584</v>
       </c>
       <c r="T11">
-        <v>0.5630464883392954</v>
+        <v>0.0008236991177728716</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.4644365</v>
+        <v>0.001483333333333333</v>
       </c>
       <c r="H12">
-        <v>2.928873</v>
+        <v>0.00445</v>
       </c>
       <c r="I12">
-        <v>0.9975280394505559</v>
+        <v>0.000829893548901757</v>
       </c>
       <c r="J12">
-        <v>0.9962966364601192</v>
+        <v>0.001244323995124487</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6010243333333334</v>
+        <v>0.07084766666666666</v>
       </c>
       <c r="N12">
-        <v>1.803073</v>
+        <v>0.212543</v>
       </c>
       <c r="O12">
-        <v>0.07994972638391565</v>
+        <v>0.008124477594271174</v>
       </c>
       <c r="P12">
-        <v>0.1036717756824495</v>
+        <v>0.01115942968737079</v>
       </c>
       <c r="Q12">
-        <v>0.8801619711215002</v>
+        <v>0.0001050907055555555</v>
       </c>
       <c r="R12">
-        <v>5.280971826729001</v>
+        <v>0.0009458163499999999</v>
       </c>
       <c r="S12">
-        <v>0.07975209381435576</v>
+        <v>6.742451543682513E-06</v>
       </c>
       <c r="T12">
-        <v>0.1032878414082724</v>
+        <v>1.388594613190002E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.4644365</v>
+        <v>0.001483333333333333</v>
       </c>
       <c r="H13">
-        <v>2.928873</v>
+        <v>0.00445</v>
       </c>
       <c r="I13">
-        <v>0.9975280394505559</v>
+        <v>0.000829893548901757</v>
       </c>
       <c r="J13">
-        <v>0.9962966364601192</v>
+        <v>0.001244323995124487</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2247126666666667</v>
+        <v>0.002219333333333333</v>
       </c>
       <c r="N13">
-        <v>0.674138</v>
+        <v>0.006658</v>
       </c>
       <c r="O13">
-        <v>0.02989182836468636</v>
+        <v>0.0002545027209677923</v>
       </c>
       <c r="P13">
-        <v>0.03876109481702357</v>
+        <v>0.0003495738879121623</v>
       </c>
       <c r="Q13">
-        <v>0.3290774310790001</v>
+        <v>3.292011111111111E-06</v>
       </c>
       <c r="R13">
-        <v>1.974464586474</v>
+        <v>2.96281E-05</v>
       </c>
       <c r="S13">
-        <v>0.0298179369442181</v>
+        <v>2.112101663091147E-07</v>
       </c>
       <c r="T13">
-        <v>0.03861754839171234</v>
+        <v>4.349831767980613E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.002145666666666667</v>
+        <v>1.743794</v>
       </c>
       <c r="H14">
-        <v>0.006437000000000001</v>
+        <v>3.487588</v>
       </c>
       <c r="I14">
-        <v>0.001461560582049416</v>
+        <v>0.9756157693574768</v>
       </c>
       <c r="J14">
-        <v>0.002189634527988679</v>
+        <v>0.9752111086535323</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.245966</v>
+        <v>0.8108664999999999</v>
       </c>
       <c r="N14">
-        <v>0.491932</v>
+        <v>1.621733</v>
       </c>
       <c r="O14">
-        <v>0.03271899873118758</v>
+        <v>0.0929863610355799</v>
       </c>
       <c r="P14">
-        <v>0.02828474718162756</v>
+        <v>0.08514801891941343</v>
       </c>
       <c r="Q14">
-        <v>0.0005277610473333334</v>
+        <v>1.413984137501</v>
       </c>
       <c r="R14">
-        <v>0.003166566284000001</v>
+        <v>5.655936550004</v>
       </c>
       <c r="S14">
-        <v>4.782079882962862E-05</v>
+        <v>0.0907189601614794</v>
       </c>
       <c r="T14">
-        <v>6.193325904432218E-05</v>
+        <v>0.08303729393005312</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.002145666666666667</v>
+        <v>1.743794</v>
       </c>
       <c r="H15">
-        <v>0.006437000000000001</v>
+        <v>3.487588</v>
       </c>
       <c r="I15">
-        <v>0.001461560582049416</v>
+        <v>0.9756157693574768</v>
       </c>
       <c r="J15">
-        <v>0.002189634527988679</v>
+        <v>0.9752111086535323</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.543219</v>
       </c>
       <c r="O15">
-        <v>0.2014500333332077</v>
+        <v>0.1736650041232461</v>
       </c>
       <c r="P15">
-        <v>0.261222690952747</v>
+        <v>0.2385387097426263</v>
       </c>
       <c r="Q15">
-        <v>0.003249411189222222</v>
+        <v>2.640812677628667</v>
       </c>
       <c r="R15">
-        <v>0.029244700703</v>
+        <v>15.844876065772</v>
       </c>
       <c r="S15">
-        <v>0.0002944314279723573</v>
+        <v>0.1694303166081701</v>
       </c>
       <c r="T15">
-        <v>0.000571982223604251</v>
+        <v>0.2326255995848898</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.002145666666666667</v>
+        <v>1.743794</v>
       </c>
       <c r="H16">
-        <v>0.006437000000000001</v>
+        <v>3.487588</v>
       </c>
       <c r="I16">
-        <v>0.001461560582049416</v>
+        <v>0.9756157693574768</v>
       </c>
       <c r="J16">
-        <v>0.002189634527988679</v>
+        <v>0.9752111086535323</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01693</v>
+        <v>0.01802466666666666</v>
       </c>
       <c r="N16">
-        <v>0.05078999999999999</v>
+        <v>0.054074</v>
       </c>
       <c r="O16">
-        <v>0.002252069995523794</v>
+        <v>0.002066984099371042</v>
       </c>
       <c r="P16">
-        <v>0.002920286359405087</v>
+        <v>0.002839119617747411</v>
       </c>
       <c r="Q16">
-        <v>3.632613666666666E-05</v>
+        <v>0.03143130558533333</v>
       </c>
       <c r="R16">
-        <v>0.00032693523</v>
+        <v>0.188587833512</v>
       </c>
       <c r="S16">
-        <v>3.291536733473782E-06</v>
+        <v>0.002016582282357551</v>
       </c>
       <c r="T16">
-        <v>6.394359844167737E-06</v>
+        <v>0.002768740990023446</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.002145666666666667</v>
+        <v>1.743794</v>
       </c>
       <c r="H17">
-        <v>0.006437000000000001</v>
+        <v>3.487588</v>
       </c>
       <c r="I17">
-        <v>0.001461560582049416</v>
+        <v>0.9756157693574768</v>
       </c>
       <c r="J17">
-        <v>0.002189634527988679</v>
+        <v>0.9752111086535323</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.914489</v>
+        <v>6.303909</v>
       </c>
       <c r="N17">
-        <v>9.828977999999999</v>
+        <v>12.607818</v>
       </c>
       <c r="O17">
-        <v>0.6537373431914789</v>
+        <v>0.7229026704265641</v>
       </c>
       <c r="P17">
-        <v>0.5651394050067473</v>
+        <v>0.6619651481449297</v>
       </c>
       <c r="Q17">
-        <v>0.010544855231</v>
+        <v>10.992718690746</v>
       </c>
       <c r="R17">
-        <v>0.063269131386</v>
+        <v>43.970874762984</v>
       </c>
       <c r="S17">
-        <v>0.0009554767318223766</v>
+        <v>0.7052752449787868</v>
       </c>
       <c r="T17">
-        <v>0.001237448754329752</v>
+        <v>0.6455557660124166</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.002145666666666667</v>
+        <v>1.743794</v>
       </c>
       <c r="H18">
-        <v>0.006437000000000001</v>
+        <v>3.487588</v>
       </c>
       <c r="I18">
-        <v>0.001461560582049416</v>
+        <v>0.9756157693574768</v>
       </c>
       <c r="J18">
-        <v>0.002189634527988679</v>
+        <v>0.9752111086535323</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6010243333333334</v>
+        <v>0.07084766666666666</v>
       </c>
       <c r="N18">
-        <v>1.803073</v>
+        <v>0.212543</v>
       </c>
       <c r="O18">
-        <v>0.07994972638391565</v>
+        <v>0.008124477594271174</v>
       </c>
       <c r="P18">
-        <v>0.1036717756824495</v>
+        <v>0.01115942968737079</v>
       </c>
       <c r="Q18">
-        <v>0.001289597877888889</v>
+        <v>0.1235437360473333</v>
       </c>
       <c r="R18">
-        <v>0.011606380901</v>
+        <v>0.7412624162839999</v>
       </c>
       <c r="S18">
-        <v>0.0001168513686283673</v>
+        <v>0.007926368458762453</v>
       </c>
       <c r="T18">
-        <v>0.0002270032996121886</v>
+        <v>0.01088279979736201</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.743794</v>
+      </c>
+      <c r="H19">
+        <v>3.487588</v>
+      </c>
+      <c r="I19">
+        <v>0.9756157693574768</v>
+      </c>
+      <c r="J19">
+        <v>0.9752111086535323</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G19">
-        <v>0.002145666666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.006437000000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.001461560582049416</v>
-      </c>
-      <c r="J19">
-        <v>0.002189634527988679</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M19">
-        <v>0.2247126666666667</v>
+        <v>0.002219333333333333</v>
       </c>
       <c r="N19">
-        <v>0.674138</v>
+        <v>0.006658</v>
       </c>
       <c r="O19">
-        <v>0.02989182836468636</v>
+        <v>0.0002545027209677923</v>
       </c>
       <c r="P19">
-        <v>0.03876109481702357</v>
+        <v>0.0003495738879121623</v>
       </c>
       <c r="Q19">
-        <v>0.0004821584784444445</v>
+        <v>0.003870060150666666</v>
       </c>
       <c r="R19">
-        <v>0.004339426306000001</v>
+        <v>0.023220360904</v>
       </c>
       <c r="S19">
-        <v>4.368871806321223E-05</v>
+        <v>0.0002482968679205639</v>
       </c>
       <c r="T19">
-        <v>8.487263155399786E-05</v>
+        <v>0.0003409083387871454</v>
       </c>
     </row>
   </sheetData>
